--- a/Exemplo_old.xlsx
+++ b/Exemplo_old.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vera/Documents/SEED/PsychoPy_Experiments/SEED_Full_draft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vera/Documents/GitHub/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65544CDD-530F-594C-8DA6-817ADA79B99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{271EF20F-7853-A844-A6FB-9EF971BC0B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8860" yWindow="4300" windowWidth="19940" windowHeight="7680" xr2:uid="{2ACA29F8-B164-2441-8861-0B1619084B7B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Index</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>ex_scene_old_new</t>
+  </si>
+  <si>
+    <t>jitter_ITI</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.25</t>
   </si>
 </sst>
 </file>
@@ -477,18 +486,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376573A3-125A-7847-9E5C-C3E906B7B606}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,8 +511,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -515,8 +528,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -529,8 +545,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -543,8 +562,11 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -556,6 +578,9 @@
       </c>
       <c r="D5" t="s">
         <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Exemplo_old.xlsx
+++ b/Exemplo_old.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vera/Documents/GitHub/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{271EF20F-7853-A844-A6FB-9EF971BC0B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2035A195-0327-7545-BF86-F9E50763CCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8860" yWindow="4300" windowWidth="19940" windowHeight="7680" xr2:uid="{2ACA29F8-B164-2441-8861-0B1619084B7B}"/>
   </bookViews>
